--- a/OPID/Uploads/Short File2.xlsx
+++ b/OPID/Uploads/Short File2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8051F23-389A-4B5D-B67E-C1C7A479B9DC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62C8FB49-8143-4686-87A8-423466689DFA}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Num</t>
   </si>
@@ -46,12 +46,12 @@
     <t>Ö</t>
   </si>
   <si>
-    <t>2266 Other States Birth Certs.</t>
-  </si>
-  <si>
     <t>Texas Dept. of Public Safety</t>
   </si>
   <si>
+    <t>2221 Photo IDs</t>
+  </si>
+  <si>
     <t>2222 ID Replacements</t>
   </si>
   <si>
@@ -61,12 +61,6 @@
     <t>2261 Houston Birth Certs.</t>
   </si>
   <si>
-    <t>JONES, TERENCE RAY - ID Replacement</t>
-  </si>
-  <si>
-    <t>WARD, SEAN PATRICK - ID Replacement</t>
-  </si>
-  <si>
     <t>Texas Depar of Public Safety</t>
   </si>
   <si>
@@ -88,28 +82,22 @@
     <t>WALKER, NORMAN SCOTT - Birth Certificate</t>
   </si>
   <si>
-    <t>WREN, MORACE EARL II - DL Replacement</t>
-  </si>
-  <si>
     <t>2242 DL Replacements</t>
   </si>
   <si>
-    <t>GOMEZ, ANA MARIA  - DL Replacement</t>
-  </si>
-  <si>
-    <t>THOMPSON, HOWARD LEE - DL Replacement</t>
-  </si>
-  <si>
-    <t>BURTON, JEFFREY - Birth Certificate</t>
-  </si>
-  <si>
-    <t>BURTON, JEFFREY - DL Replacement</t>
-  </si>
-  <si>
-    <t>Florida Dept. of Health</t>
-  </si>
-  <si>
-    <t>LANGSCHWAGER, SEAN KURT - Birth Certificate</t>
+    <t>PAYNE, JOSEPH - DL Replacement</t>
+  </si>
+  <si>
+    <t>DAVIS, JEFFREY BERNARD - Photo ID</t>
+  </si>
+  <si>
+    <t>SANDERS, RHONDA - ID Replacement</t>
+  </si>
+  <si>
+    <t>FRANCIS, LARRY JOSEPH - Photo ID</t>
+  </si>
+  <si>
+    <t>ALLARD, JOHN FRANCIS - Birth Certificate</t>
   </si>
 </sst>
 </file>
@@ -473,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N14"/>
+  <dimension ref="B1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A2" sqref="A2:N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +500,7 @@
     </row>
     <row r="2" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3">
-        <v>81448</v>
+        <v>81468</v>
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="5">
@@ -520,19 +508,17 @@
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="4"/>
       <c r="L2" s="4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="M2" s="4"/>
       <c r="N2" s="7">
@@ -541,7 +527,7 @@
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3">
-        <v>81449</v>
+        <v>81469</v>
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="5">
@@ -549,11 +535,11 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="6" t="s">
@@ -561,16 +547,16 @@
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="7">
-        <v>-11</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3">
-        <v>81451</v>
+        <v>81470</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="5">
@@ -578,19 +564,17 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4"/>
-      <c r="J4" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="M4" s="4"/>
       <c r="N4" s="7">
@@ -599,7 +583,7 @@
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3">
-        <v>81453</v>
+        <v>81471</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="5">
@@ -607,26 +591,28 @@
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I5" s="4"/>
-      <c r="J5" s="6"/>
+      <c r="J5" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="K5" s="4"/>
       <c r="L5" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M5" s="4"/>
       <c r="N5" s="7">
-        <v>-23</v>
+        <v>-16</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3">
-        <v>81454</v>
+        <v>81472</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="5">
@@ -634,26 +620,28 @@
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" s="4"/>
       <c r="H6" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
+      <c r="J6" s="6" t="s">
+        <v>7</v>
+      </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="M6" s="4"/>
       <c r="N6" s="7">
-        <v>-11</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3">
-        <v>81455</v>
+        <v>81437</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="5">
@@ -661,86 +649,80 @@
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="I7" s="4"/>
-      <c r="J7" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="M7" s="4"/>
       <c r="N7" s="7">
-        <v>-9</v>
+        <v>-25</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="3">
-        <v>81368</v>
+        <v>81438</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="5">
-        <v>43069</v>
+        <v>43074</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4"/>
-      <c r="J8" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="4"/>
       <c r="L8" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M8" s="4"/>
       <c r="N8" s="7">
-        <v>-11</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="3">
-        <v>81369</v>
+        <v>81439</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="5">
-        <v>43069</v>
+        <v>43074</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="I9" s="4"/>
-      <c r="J9" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M9" s="4"/>
       <c r="N9" s="7">
-        <v>-11</v>
+        <v>-23</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
-        <v>81437</v>
+        <v>81440</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="5">
@@ -748,26 +730,26 @@
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="6"/>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="M10" s="4"/>
       <c r="N10" s="7">
-        <v>-25</v>
+        <v>-11</v>
       </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="3">
-        <v>81438</v>
+        <v>81442</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="5">
@@ -779,7 +761,7 @@
       </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="6"/>
@@ -792,87 +774,6 @@
         <v>-23</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="3">
-        <v>81439</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5">
-        <v>43074</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="4"/>
-      <c r="N12" s="7">
-        <v>-23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="3">
-        <v>81440</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="5">
-        <v>43074</v>
-      </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="M13" s="4"/>
-      <c r="N13" s="7">
-        <v>-11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="3">
-        <v>81442</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5">
-        <v>43074</v>
-      </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="7">
-        <v>-23</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
